--- a/Project3603_L. Kuo(2018).xlsx
+++ b/Project3603_L. Kuo(2018).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C7FFF-53D5-4446-8F52-5717D1C8BE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF851E2-DD33-4455-91FD-6A5A80F5D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15660" windowHeight="15400" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="255" yWindow="3900" windowWidth="15945" windowHeight="18375" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3603" sheetId="1" r:id="rId1"/>
@@ -175,55 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3731ECC-369D-69AB-8EC8-E5EB2519FBC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7179733" y="321732"/>
-          <a:ext cx="10735733" cy="6709833"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,13 +500,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -577,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -588,7 +539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -599,7 +550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -610,7 +561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -621,7 +572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -632,7 +583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -643,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -654,7 +605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -665,7 +616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -676,7 +627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -687,7 +638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -698,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -709,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -723,6 +674,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>